--- a/output/below_50/tRNA-Gln-TTG-3-1.xlsx
+++ b/output/below_50/tRNA-Gln-TTG-3-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="80">
   <si>
     <t>chr6</t>
   </si>
@@ -252,102 +252,6 @@
   </si>
   <si>
     <t>42915333798</t>
-  </si>
-  <si>
-    <t>26311503</t>
-  </si>
-  <si>
-    <t>26311526</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>26311506</t>
-  </si>
-  <si>
-    <t>TTATAAATTCATGAAATTGG</t>
-  </si>
-  <si>
-    <t>50% (50)</t>
-  </si>
-  <si>
-    <t>27% (34)</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 45, Doench 2016: 50%, Moreno-Mateos: 27%</t>
-  </si>
-  <si>
-    <t>2.65991E+11</t>
-  </si>
-  <si>
-    <t>26311699</t>
-  </si>
-  <si>
-    <t>26311722</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>26311719</t>
-  </si>
-  <si>
-    <t>TTCAAAAAAGGAAAGAACTG</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>95% (67)</t>
-  </si>
-  <si>
-    <t>4% (14)</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 23, Doench 2016: 95%, Moreno-Mateos: 4%</t>
-  </si>
-  <si>
-    <t>3.28244E+11</t>
-  </si>
-  <si>
-    <t>26311704</t>
-  </si>
-  <si>
-    <t>26311727</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>26311724</t>
-  </si>
-  <si>
-    <t>AAAAGGAAAGAACTGAGGTC</t>
-  </si>
-  <si>
-    <t>56% (52)</t>
-  </si>
-  <si>
-    <t>39% (40)</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 22, Doench 2016: 56%, Moreno-Mateos: 39%</t>
-  </si>
-  <si>
-    <t>4.04242E+11</t>
   </si>
 </sst>
 </file>
@@ -392,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -929,183 +833,6 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O10" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10" t="s">
-        <v>88</v>
-      </c>
-      <c r="S10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O11" t="s">
-        <v>97</v>
-      </c>
-      <c r="P11" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>99</v>
-      </c>
-      <c r="R11" t="s">
-        <v>100</v>
-      </c>
-      <c r="S11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>106</v>
-      </c>
-      <c r="L12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" t="s">
-        <v>104</v>
-      </c>
-      <c r="N12" t="s">
-        <v>107</v>
-      </c>
-      <c r="O12" t="s">
-        <v>108</v>
-      </c>
-      <c r="P12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>109</v>
-      </c>
-      <c r="R12" t="s">
-        <v>110</v>
-      </c>
-      <c r="S12" t="s">
-        <v>111</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/below_50/tRNA-Gln-TTG-3-1.xlsx
+++ b/output/below_50/tRNA-Gln-TTG-3-1.xlsx
@@ -17,10 +17,10 @@
     <t>chr6</t>
   </si>
   <si>
-    <t>26311425</t>
-  </si>
-  <si>
-    <t>26311448</t>
+    <t>26311976</t>
+  </si>
+  <si>
+    <t>26311999</t>
   </si>
   <si>
     <t>0</t>
@@ -29,7 +29,7 @@
     <t>+</t>
   </si>
   <si>
-    <t>26311445</t>
+    <t>26311996</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -50,28 +50,28 @@
     <t>96% (68)</t>
   </si>
   <si>
-    <t>35% (38)</t>
+    <t>41% (41)</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>67</t>
+    <t>68</t>
   </si>
   <si>
     <t>Sequence is not unique in genome</t>
   </si>
   <si>
-    <t>26311427</t>
-  </si>
-  <si>
-    <t>26311450</t>
+    <t>26311978</t>
+  </si>
+  <si>
+    <t>26312001</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>26311430</t>
+    <t>26311981</t>
   </si>
   <si>
     <t>ATCCGAGTTCAAATCTCGGT</t>
@@ -83,22 +83,22 @@
     <t>84% (61)</t>
   </si>
   <si>
-    <t>18% (29)</t>
+    <t>22% (31)</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>26311428</t>
-  </si>
-  <si>
-    <t>26311451</t>
-  </si>
-  <si>
-    <t>26311431</t>
+    <t>64</t>
+  </si>
+  <si>
+    <t>26311979</t>
+  </si>
+  <si>
+    <t>26312002</t>
+  </si>
+  <si>
+    <t>26311982</t>
   </si>
   <si>
     <t>GATCCGAGTTCAAATCTCGG</t>
@@ -110,19 +110,16 @@
     <t>98% (70)</t>
   </si>
   <si>
-    <t>5% (17)</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>26311454</t>
-  </si>
-  <si>
-    <t>26311434</t>
+    <t>9% (21)</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>26312005</t>
+  </si>
+  <si>
+    <t>26311985</t>
   </si>
   <si>
     <t>AGCGATCCGAGTTCAAATCT</t>
@@ -137,16 +134,13 @@
     <t>6</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>26311433</t>
-  </si>
-  <si>
-    <t>26311456</t>
-  </si>
-  <si>
-    <t>26311453</t>
+    <t>26311984</t>
+  </si>
+  <si>
+    <t>26312007</t>
+  </si>
+  <si>
+    <t>26312004</t>
   </si>
   <si>
     <t>GAGATTTGAACTCGGATCGC</t>
@@ -155,22 +149,19 @@
     <t>32% (44)</t>
   </si>
   <si>
-    <t>22% (31)</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
     <t>66</t>
   </si>
   <si>
-    <t>26311465</t>
-  </si>
-  <si>
-    <t>26311488</t>
-  </si>
-  <si>
-    <t>26311468</t>
+    <t>26312016</t>
+  </si>
+  <si>
+    <t>26312039</t>
+  </si>
+  <si>
+    <t>26312019</t>
   </si>
   <si>
     <t>TGGTGTAATGGTTAGCACTC</t>
@@ -182,10 +173,10 @@
     <t>9</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>26311491</t>
+    <t>63</t>
+  </si>
+  <si>
+    <t>26312042</t>
   </si>
   <si>
     <t>GAGTGCTAACCATTACACCA</t>
@@ -194,19 +185,22 @@
     <t>92% (65)</t>
   </si>
   <si>
-    <t>14% (26)</t>
+    <t>25% (33)</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>26311469</t>
-  </si>
-  <si>
-    <t>26311492</t>
-  </si>
-  <si>
-    <t>26311489</t>
+    <t>80</t>
+  </si>
+  <si>
+    <t>26312020</t>
+  </si>
+  <si>
+    <t>26312043</t>
+  </si>
+  <si>
+    <t>26312040</t>
   </si>
   <si>
     <t>AGTGCTAACCATTACACCAT</t>
@@ -221,16 +215,19 @@
     <t>7</t>
   </si>
   <si>
-    <t>26311470</t>
-  </si>
-  <si>
-    <t>26311493</t>
+    <t>79</t>
+  </si>
+  <si>
+    <t>26312021</t>
+  </si>
+  <si>
+    <t>26312044</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>26311490</t>
+    <t>26312041</t>
   </si>
   <si>
     <t>80,80,80</t>
@@ -242,13 +239,16 @@
     <t>100% (75)</t>
   </si>
   <si>
-    <t>71% (55)</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 18, Doench 2016: 100%, Moreno-Mateos: 71%</t>
+    <t>76% (58)</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 18, Doench 2016: 100%, Moreno-Mateos: 76%</t>
   </si>
   <si>
     <t>42915333798</t>
@@ -467,10 +467,10 @@
         <v>32</v>
       </c>
       <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
         <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -487,7 +487,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -496,10 +496,10 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -511,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
         <v>9</v>
@@ -520,16 +520,16 @@
         <v>10</v>
       </c>
       <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" t="s">
-        <v>40</v>
-      </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -555,10 +555,10 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
         <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -570,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
         <v>30</v>
@@ -579,16 +579,16 @@
         <v>10</v>
       </c>
       <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" t="s">
         <v>46</v>
-      </c>
-      <c r="O5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>49</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -602,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -614,10 +614,10 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
         <v>30</v>
@@ -638,16 +638,16 @@
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -673,10 +673,10 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -688,7 +688,7 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L7" t="s">
         <v>30</v>
@@ -697,16 +697,16 @@
         <v>10</v>
       </c>
       <c r="N7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" t="s">
         <v>59</v>
-      </c>
-      <c r="O7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>56</v>
       </c>
       <c r="R7" t="s">
         <v>15</v>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
         <v>62</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -747,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
@@ -756,16 +756,16 @@
         <v>10</v>
       </c>
       <c r="N8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="s">
         <v>66</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>67</v>
-      </c>
-      <c r="P8" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>56</v>
       </c>
       <c r="R8" t="s">
         <v>15</v>
@@ -779,52 +779,52 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
         <v>72</v>
       </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L9" t="s">
         <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" t="s">
         <v>75</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>76</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>77</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>34</v>
       </c>
       <c r="R9" t="s">
         <v>78</v>
